--- a/data/pca/factorExposure/factorExposure_2018-11-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.07307008661383115</v>
+        <v>-0.05144228771836682</v>
       </c>
       <c r="C2">
-        <v>0.05254063040048756</v>
+        <v>-0.007399917911786026</v>
       </c>
       <c r="D2">
-        <v>-0.06711357009493892</v>
+        <v>0.03456407123695798</v>
       </c>
       <c r="E2">
-        <v>-0.001323152045250085</v>
+        <v>0.01179099053088173</v>
       </c>
       <c r="F2">
-        <v>-0.1244735038107583</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03766889581475132</v>
+      </c>
+      <c r="G2">
+        <v>0.1014853823838919</v>
+      </c>
+      <c r="H2">
+        <v>-0.07672696983402597</v>
+      </c>
+      <c r="I2">
+        <v>0.0666657596682519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2007942978912176</v>
+        <v>-0.1354865949772862</v>
       </c>
       <c r="C3">
-        <v>-0.01470805231611073</v>
+        <v>0.0342089895788897</v>
       </c>
       <c r="D3">
-        <v>-0.1135984608691722</v>
+        <v>0.06383512159509507</v>
       </c>
       <c r="E3">
-        <v>-0.005597728607487576</v>
+        <v>-0.0004426415173744947</v>
       </c>
       <c r="F3">
-        <v>-0.4063045351281656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.01211314293493973</v>
+      </c>
+      <c r="G3">
+        <v>0.3679249783548412</v>
+      </c>
+      <c r="H3">
+        <v>-0.2669483075046649</v>
+      </c>
+      <c r="I3">
+        <v>0.06004648767061253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0697111290116544</v>
+        <v>-0.0579467300581237</v>
       </c>
       <c r="C4">
-        <v>0.02897475013739944</v>
+        <v>-0.0002798916220175477</v>
       </c>
       <c r="D4">
-        <v>-0.05760919033017074</v>
+        <v>0.04162160109351561</v>
       </c>
       <c r="E4">
-        <v>-0.05379855666402471</v>
+        <v>-0.02208712735612398</v>
       </c>
       <c r="F4">
-        <v>-0.05726154693129078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.05859253359405146</v>
+      </c>
+      <c r="G4">
+        <v>0.0595936250925227</v>
+      </c>
+      <c r="H4">
+        <v>-0.02686614279950087</v>
+      </c>
+      <c r="I4">
+        <v>0.03839917908554209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.006370949513719075</v>
+        <v>-0.03000580446342502</v>
       </c>
       <c r="C6">
-        <v>0.002262238484127915</v>
+        <v>-0.002768565026981636</v>
       </c>
       <c r="D6">
-        <v>-0.0006228243978608763</v>
+        <v>0.01972619278558981</v>
       </c>
       <c r="E6">
-        <v>0.005071491012840753</v>
+        <v>-0.006164534215973772</v>
       </c>
       <c r="F6">
-        <v>-0.0005646783897590203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02136091495533301</v>
+      </c>
+      <c r="G6">
+        <v>0.01791889657093219</v>
+      </c>
+      <c r="H6">
+        <v>0.03458590943893981</v>
+      </c>
+      <c r="I6">
+        <v>-0.009647474171828034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03466800699562242</v>
+        <v>-0.03202407350421694</v>
       </c>
       <c r="C7">
-        <v>0.02249203679883479</v>
+        <v>0.0009096005880272213</v>
       </c>
       <c r="D7">
-        <v>-0.04326921557188314</v>
+        <v>0.007113813757936585</v>
       </c>
       <c r="E7">
-        <v>-0.006605714512001319</v>
+        <v>-0.03648023063289769</v>
       </c>
       <c r="F7">
-        <v>-0.07222122299011427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.03110777229856547</v>
+      </c>
+      <c r="G7">
+        <v>0.04279543038573799</v>
+      </c>
+      <c r="H7">
+        <v>-0.04756769187619558</v>
+      </c>
+      <c r="I7">
+        <v>0.0006416669950056019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03962098187477069</v>
+        <v>-0.01404749449857027</v>
       </c>
       <c r="C8">
-        <v>-0.0008645517782820353</v>
+        <v>0.006984229838850361</v>
       </c>
       <c r="D8">
-        <v>-0.04362932021329904</v>
+        <v>0.04006637044556071</v>
       </c>
       <c r="E8">
-        <v>-0.04228141387650385</v>
+        <v>-0.01863598555414499</v>
       </c>
       <c r="F8">
-        <v>-0.07726396274848539</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.0213847753570558</v>
+      </c>
+      <c r="G8">
+        <v>0.06192578185397533</v>
+      </c>
+      <c r="H8">
+        <v>-0.05704750764114337</v>
+      </c>
+      <c r="I8">
+        <v>0.03527756079673083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0576650997322973</v>
+        <v>-0.04815780894783782</v>
       </c>
       <c r="C9">
-        <v>0.02844847733008339</v>
+        <v>0.004954578609758146</v>
       </c>
       <c r="D9">
-        <v>-0.04052105311645636</v>
+        <v>0.02999223332532016</v>
       </c>
       <c r="E9">
-        <v>-0.06072316692149309</v>
+        <v>-0.0213879443825058</v>
       </c>
       <c r="F9">
-        <v>-0.05317935149529341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.04414209616924</v>
+      </c>
+      <c r="G9">
+        <v>0.06898840091037892</v>
+      </c>
+      <c r="H9">
+        <v>-0.02891021814509195</v>
+      </c>
+      <c r="I9">
+        <v>0.04096952042226928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03021074560003906</v>
+        <v>-0.06021535435210466</v>
       </c>
       <c r="C10">
-        <v>0.07895853843240533</v>
+        <v>0.004192663693433533</v>
       </c>
       <c r="D10">
-        <v>0.1153221305014443</v>
+        <v>-0.1539604968204243</v>
       </c>
       <c r="E10">
-        <v>0.09634228123582425</v>
+        <v>0.04510934226705732</v>
       </c>
       <c r="F10">
-        <v>-0.05509129885206329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04481491251344475</v>
+      </c>
+      <c r="G10">
+        <v>0.04751900642396924</v>
+      </c>
+      <c r="H10">
+        <v>-0.03304596680907818</v>
+      </c>
+      <c r="I10">
+        <v>0.04166074657689648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.04624050913866429</v>
+        <v>-0.03811720787414012</v>
       </c>
       <c r="C11">
-        <v>0.005379479786048996</v>
+        <v>0.01585205049358992</v>
       </c>
       <c r="D11">
-        <v>-0.03108822371559016</v>
+        <v>0.03723730947074213</v>
       </c>
       <c r="E11">
-        <v>-0.01120072810504894</v>
+        <v>-0.001804196226422326</v>
       </c>
       <c r="F11">
-        <v>-0.042054769714266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.01640248634364081</v>
+      </c>
+      <c r="G11">
+        <v>0.03194182642637551</v>
+      </c>
+      <c r="H11">
+        <v>-0.004475180953450417</v>
+      </c>
+      <c r="I11">
+        <v>0.01760501130410313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04587325249732569</v>
+        <v>-0.0392542996229875</v>
       </c>
       <c r="C12">
-        <v>0.007062901209327022</v>
+        <v>0.01103149203777981</v>
       </c>
       <c r="D12">
-        <v>-0.02855496692033928</v>
+        <v>0.03266458806448975</v>
       </c>
       <c r="E12">
-        <v>-0.0301447678115108</v>
+        <v>-0.01162616206342119</v>
       </c>
       <c r="F12">
-        <v>-0.02777213174854411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.02204654546227974</v>
+      </c>
+      <c r="G12">
+        <v>0.01013498494732523</v>
+      </c>
+      <c r="H12">
+        <v>-0.00275505835097574</v>
+      </c>
+      <c r="I12">
+        <v>0.006180818349738199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.04772106466091719</v>
+        <v>-0.04058748558652611</v>
       </c>
       <c r="C13">
-        <v>0.01793998682349229</v>
+        <v>-0.008439214766300961</v>
       </c>
       <c r="D13">
-        <v>-0.0454007939094653</v>
+        <v>0.02629624668849245</v>
       </c>
       <c r="E13">
-        <v>0.02126196921990173</v>
+        <v>0.0133980670364407</v>
       </c>
       <c r="F13">
-        <v>-0.112862039202711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.01584444600020342</v>
+      </c>
+      <c r="G13">
+        <v>0.08369642676101405</v>
+      </c>
+      <c r="H13">
+        <v>-0.03795709245033305</v>
+      </c>
+      <c r="I13">
+        <v>0.03469983913011444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02514183216916939</v>
+        <v>-0.02151761138305424</v>
       </c>
       <c r="C14">
-        <v>0.01810909071640199</v>
+        <v>0.001663320562463416</v>
       </c>
       <c r="D14">
-        <v>-0.03857736582358629</v>
+        <v>0.01442431316518945</v>
       </c>
       <c r="E14">
-        <v>-0.01985867031229434</v>
+        <v>-0.008620322638233438</v>
       </c>
       <c r="F14">
-        <v>-0.03945857235209751</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03096308594576472</v>
+      </c>
+      <c r="G14">
+        <v>0.03419179674169254</v>
+      </c>
+      <c r="H14">
+        <v>-0.06625986306222229</v>
+      </c>
+      <c r="I14">
+        <v>0.01692955574616514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.03855628453944968</v>
+        <v>-0.03359344336605371</v>
       </c>
       <c r="C16">
-        <v>0.005226516209749695</v>
+        <v>0.01338689921369651</v>
       </c>
       <c r="D16">
-        <v>-0.02707143932403077</v>
+        <v>0.03268640041310666</v>
       </c>
       <c r="E16">
-        <v>-0.01171188053625373</v>
+        <v>-0.005731927994660304</v>
       </c>
       <c r="F16">
-        <v>-0.03391120431646621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02064038363800923</v>
+      </c>
+      <c r="G16">
+        <v>0.02863194318737931</v>
+      </c>
+      <c r="H16">
+        <v>-0.006588625513672842</v>
+      </c>
+      <c r="I16">
+        <v>0.007238091462778996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05749400899011341</v>
+        <v>-0.04528563294013233</v>
       </c>
       <c r="C19">
-        <v>-0.002589190970497603</v>
+        <v>0.004933379466363668</v>
       </c>
       <c r="D19">
-        <v>-0.0381333768720422</v>
+        <v>0.03963048075024008</v>
       </c>
       <c r="E19">
-        <v>-0.0007343933529121184</v>
+        <v>-0.001722938866121708</v>
       </c>
       <c r="F19">
-        <v>-0.08469020531802041</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02101604447602822</v>
+      </c>
+      <c r="G19">
+        <v>0.07890655012403155</v>
+      </c>
+      <c r="H19">
+        <v>-0.05029487668270246</v>
+      </c>
+      <c r="I19">
+        <v>0.02243667876550928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01751891759701768</v>
+        <v>-0.01342635937571554</v>
       </c>
       <c r="C20">
-        <v>0.009472038117003079</v>
+        <v>-0.003614573539387629</v>
       </c>
       <c r="D20">
-        <v>-0.04282008841570883</v>
+        <v>0.02043175162492395</v>
       </c>
       <c r="E20">
-        <v>-0.02888572029486739</v>
+        <v>-0.00709227229258492</v>
       </c>
       <c r="F20">
-        <v>-0.06741667428162726</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02068366814586014</v>
+      </c>
+      <c r="G20">
+        <v>0.0513033602353185</v>
+      </c>
+      <c r="H20">
+        <v>-0.0608197831819118</v>
+      </c>
+      <c r="I20">
+        <v>0.01196266699926009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01701943666171935</v>
+        <v>-0.029253217522024</v>
       </c>
       <c r="C21">
-        <v>-0.006731238713911047</v>
+        <v>-0.0045649885368054</v>
       </c>
       <c r="D21">
-        <v>-0.03859449740526778</v>
+        <v>0.0215137481799486</v>
       </c>
       <c r="E21">
-        <v>-0.01401008623445952</v>
+        <v>-0.01610224525465926</v>
       </c>
       <c r="F21">
-        <v>-0.0801809932417777</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01312000338710365</v>
+      </c>
+      <c r="G21">
+        <v>0.05713255417710941</v>
+      </c>
+      <c r="H21">
+        <v>-0.03278022466110761</v>
+      </c>
+      <c r="I21">
+        <v>0.05780925086651428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03659132732009725</v>
+        <v>-0.03271052681022574</v>
       </c>
       <c r="C24">
-        <v>0.005123568337374615</v>
+        <v>0.009438731151538076</v>
       </c>
       <c r="D24">
-        <v>-0.02461514506071725</v>
+        <v>0.03015872891709332</v>
       </c>
       <c r="E24">
-        <v>-0.01258065732097772</v>
+        <v>-0.005731863862045773</v>
       </c>
       <c r="F24">
-        <v>-0.04356456679677599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.01627728225392853</v>
+      </c>
+      <c r="G24">
+        <v>0.03139182945468099</v>
+      </c>
+      <c r="H24">
+        <v>-0.003180897622587595</v>
+      </c>
+      <c r="I24">
+        <v>0.01155072622521151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.04045918337009916</v>
+        <v>-0.04120491976714286</v>
       </c>
       <c r="C25">
-        <v>0.006214301377760732</v>
+        <v>0.006529156111689112</v>
       </c>
       <c r="D25">
-        <v>-0.02785938654089011</v>
+        <v>0.03086664636909157</v>
       </c>
       <c r="E25">
-        <v>-0.01853319649225967</v>
+        <v>-0.005639331578173683</v>
       </c>
       <c r="F25">
-        <v>-0.05014982574571178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01973200930594725</v>
+      </c>
+      <c r="G25">
+        <v>0.04150595247162826</v>
+      </c>
+      <c r="H25">
+        <v>0.0009191392016330289</v>
+      </c>
+      <c r="I25">
+        <v>0.01823977703700804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01991028745598932</v>
+        <v>-0.01822072121132584</v>
       </c>
       <c r="C26">
-        <v>-0.004845151937605382</v>
+        <v>-0.01799064423419689</v>
       </c>
       <c r="D26">
-        <v>-0.04975136385702481</v>
+        <v>0.0252965453751355</v>
       </c>
       <c r="E26">
-        <v>0.0006740738542767445</v>
+        <v>0.0002735622893093552</v>
       </c>
       <c r="F26">
-        <v>-0.04903374764719829</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.007230777398105588</v>
+      </c>
+      <c r="G26">
+        <v>0.04387145196398046</v>
+      </c>
+      <c r="H26">
+        <v>-0.04115740038247195</v>
+      </c>
+      <c r="I26">
+        <v>0.01355222608208064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1036560682305415</v>
+        <v>-0.05623106754370372</v>
       </c>
       <c r="C27">
-        <v>0.04118894550983119</v>
+        <v>0.020013785837161</v>
       </c>
       <c r="D27">
-        <v>-0.03281361054226724</v>
+        <v>0.01708825085838532</v>
       </c>
       <c r="E27">
-        <v>-0.03054675455217155</v>
+        <v>-0.002956921897100947</v>
       </c>
       <c r="F27">
-        <v>-0.05760990542591125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.02582834748071098</v>
+      </c>
+      <c r="G27">
+        <v>0.03937754056019779</v>
+      </c>
+      <c r="H27">
+        <v>-0.03376658309519037</v>
+      </c>
+      <c r="I27">
+        <v>0.01870153766289616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04559974609151345</v>
+        <v>-0.09000772667969786</v>
       </c>
       <c r="C28">
-        <v>0.1001069035515374</v>
+        <v>-0.003597432157452929</v>
       </c>
       <c r="D28">
-        <v>0.1879255865307949</v>
+        <v>-0.2358812416178189</v>
       </c>
       <c r="E28">
-        <v>0.1317744894591618</v>
+        <v>0.06088329989256028</v>
       </c>
       <c r="F28">
-        <v>-0.02564099704189983</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.06806646989967548</v>
+      </c>
+      <c r="G28">
+        <v>0.02813163649673521</v>
+      </c>
+      <c r="H28">
+        <v>-0.05247653614473745</v>
+      </c>
+      <c r="I28">
+        <v>0.03346501565786447</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0245170474961734</v>
+        <v>-0.02193865970188018</v>
       </c>
       <c r="C29">
-        <v>0.01245016909131328</v>
+        <v>0.002100532603796652</v>
       </c>
       <c r="D29">
-        <v>-0.03943673091213478</v>
+        <v>0.015337392283252</v>
       </c>
       <c r="E29">
-        <v>-0.03341181588447824</v>
+        <v>-0.0109242659473969</v>
       </c>
       <c r="F29">
-        <v>-0.02384956525359599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03318638034606558</v>
+      </c>
+      <c r="G29">
+        <v>0.02800687914911603</v>
+      </c>
+      <c r="H29">
+        <v>-0.06542474899250804</v>
+      </c>
+      <c r="I29">
+        <v>0.01522253976341227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.09551404037008045</v>
+        <v>-0.07903947068100714</v>
       </c>
       <c r="C30">
-        <v>0.054180963001602</v>
+        <v>0.004430728096473778</v>
       </c>
       <c r="D30">
-        <v>-0.06354281444968767</v>
+        <v>0.06061202957676673</v>
       </c>
       <c r="E30">
-        <v>-0.01471034873865981</v>
+        <v>0.03217315848992359</v>
       </c>
       <c r="F30">
-        <v>-0.09614378119693312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.0600963358612777</v>
+      </c>
+      <c r="G30">
+        <v>0.08577279684426635</v>
+      </c>
+      <c r="H30">
+        <v>-0.009830327262731656</v>
+      </c>
+      <c r="I30">
+        <v>-0.0006612028311362756</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.05835873889934556</v>
+        <v>-0.05459292392406496</v>
       </c>
       <c r="C31">
-        <v>0.01826372191511139</v>
+        <v>0.0147387786420251</v>
       </c>
       <c r="D31">
-        <v>-0.03126366791296469</v>
+        <v>0.01638000524435827</v>
       </c>
       <c r="E31">
-        <v>0.02790059041674185</v>
+        <v>0.006815097327805509</v>
       </c>
       <c r="F31">
-        <v>0.009902049827597502</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01701832108305501</v>
+      </c>
+      <c r="G31">
+        <v>0.0002020877923664443</v>
+      </c>
+      <c r="H31">
+        <v>-0.06023747226308276</v>
+      </c>
+      <c r="I31">
+        <v>0.04773323733058884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.05606805620775729</v>
+        <v>-0.02855374320979032</v>
       </c>
       <c r="C32">
-        <v>0.02029120279746994</v>
+        <v>0.02249308005645779</v>
       </c>
       <c r="D32">
-        <v>-0.0495504149383053</v>
+        <v>0.03092277765949129</v>
       </c>
       <c r="E32">
-        <v>-0.03371854549663227</v>
+        <v>-0.01826615617771139</v>
       </c>
       <c r="F32">
-        <v>-0.07067103619816673</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.04940399883527684</v>
+      </c>
+      <c r="G32">
+        <v>0.07377740440872915</v>
+      </c>
+      <c r="H32">
+        <v>-0.004156035257896817</v>
+      </c>
+      <c r="I32">
+        <v>0.007374817205830114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.05432992223120339</v>
+        <v>-0.04615625021581149</v>
       </c>
       <c r="C33">
-        <v>-0.001248966137870978</v>
+        <v>0.005243216612680673</v>
       </c>
       <c r="D33">
-        <v>-0.07179302522593511</v>
+        <v>0.05192933055946886</v>
       </c>
       <c r="E33">
-        <v>-0.01286835376991575</v>
+        <v>0.01208077888560482</v>
       </c>
       <c r="F33">
-        <v>-0.0755412832192454</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01311070121897256</v>
+      </c>
+      <c r="G33">
+        <v>0.06567373952279126</v>
+      </c>
+      <c r="H33">
+        <v>-0.05188571577990076</v>
+      </c>
+      <c r="I33">
+        <v>0.03963298147605653</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04000698269334257</v>
+        <v>-0.03372965347484543</v>
       </c>
       <c r="C34">
-        <v>0.01260754031574986</v>
+        <v>0.02264162188489319</v>
       </c>
       <c r="D34">
-        <v>-0.03141463935286147</v>
+        <v>0.03006942783879799</v>
       </c>
       <c r="E34">
-        <v>-0.01791613194439021</v>
+        <v>-0.01021991789819127</v>
       </c>
       <c r="F34">
-        <v>-0.04172106252812076</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02640297103651639</v>
+      </c>
+      <c r="G34">
+        <v>0.03533756649037987</v>
+      </c>
+      <c r="H34">
+        <v>-0.00426064555474195</v>
+      </c>
+      <c r="I34">
+        <v>0.01464124001082711</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01623771526122271</v>
+        <v>-0.02032542195466904</v>
       </c>
       <c r="C36">
-        <v>0.01402320113716325</v>
+        <v>-0.003940470579734284</v>
       </c>
       <c r="D36">
-        <v>-0.007851742973475358</v>
+        <v>-0.0003719661811014035</v>
       </c>
       <c r="E36">
-        <v>-0.006250963083376661</v>
+        <v>-0.002068811488545137</v>
       </c>
       <c r="F36">
-        <v>-0.02525689955155387</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01354196665653873</v>
+      </c>
+      <c r="G36">
+        <v>0.02393436328089208</v>
+      </c>
+      <c r="H36">
+        <v>-0.03598339097877018</v>
+      </c>
+      <c r="I36">
+        <v>0.02410234717372725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.01226960536812861</v>
+        <v>-0.0185622130338042</v>
       </c>
       <c r="C38">
-        <v>0.006250913595742213</v>
+        <v>0.01311068510560332</v>
       </c>
       <c r="D38">
-        <v>0.01019187049273588</v>
+        <v>0.003079847976022824</v>
       </c>
       <c r="E38">
-        <v>-0.00505201958398941</v>
+        <v>-0.005299762221840128</v>
       </c>
       <c r="F38">
-        <v>-0.0246981395951075</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.003070334968744937</v>
+      </c>
+      <c r="G38">
+        <v>0.03984605821210131</v>
+      </c>
+      <c r="H38">
+        <v>-0.02957983170046491</v>
+      </c>
+      <c r="I38">
+        <v>0.02861711104131554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.05388224098214508</v>
+        <v>-0.03975847402093038</v>
       </c>
       <c r="C39">
-        <v>0.01186869604219191</v>
+        <v>0.01139969147137229</v>
       </c>
       <c r="D39">
-        <v>-0.04841697521062833</v>
+        <v>0.05421916040209379</v>
       </c>
       <c r="E39">
-        <v>-0.007947016309658352</v>
+        <v>-0.004667656516480555</v>
       </c>
       <c r="F39">
-        <v>-0.03205335944980085</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.0322706147968411</v>
+      </c>
+      <c r="G39">
+        <v>0.04889816986184544</v>
+      </c>
+      <c r="H39">
+        <v>0.005376510476595502</v>
+      </c>
+      <c r="I39">
+        <v>0.02292343368072141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.05418492734572465</v>
+        <v>-0.04520460941034002</v>
       </c>
       <c r="C40">
-        <v>0.03175551241719362</v>
+        <v>0.005639174246425271</v>
       </c>
       <c r="D40">
-        <v>-0.07196281620907685</v>
+        <v>0.04324006141258668</v>
       </c>
       <c r="E40">
-        <v>0.01522941671808685</v>
+        <v>0.01711684316169713</v>
       </c>
       <c r="F40">
-        <v>-0.08360557353808082</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03363947142409229</v>
+      </c>
+      <c r="G40">
+        <v>0.07186589722889389</v>
+      </c>
+      <c r="H40">
+        <v>-0.04078378403391567</v>
+      </c>
+      <c r="I40">
+        <v>0.03729820445221871</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01054544771498603</v>
+        <v>-0.001425338100791705</v>
       </c>
       <c r="C41">
-        <v>-0.004934076615104945</v>
+        <v>-0.003280968307681177</v>
       </c>
       <c r="D41">
-        <v>-0.02597316562600811</v>
+        <v>0.003121028344678773</v>
       </c>
       <c r="E41">
-        <v>-0.01975894878785251</v>
+        <v>-0.001282597890668572</v>
       </c>
       <c r="F41">
-        <v>0.008245203810497492</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.00664050476886339</v>
+      </c>
+      <c r="G41">
+        <v>0.001632892827485489</v>
+      </c>
+      <c r="H41">
+        <v>-0.05606638895208049</v>
+      </c>
+      <c r="I41">
+        <v>0.03770037727565877</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.3586337968316461</v>
+        <v>-0.25303832292643</v>
       </c>
       <c r="C42">
-        <v>-0.8673980770922077</v>
+        <v>-0.063704516658078</v>
       </c>
       <c r="D42">
-        <v>0.1429030794413045</v>
+        <v>0.367906502000641</v>
       </c>
       <c r="E42">
-        <v>0.2480614445215586</v>
+        <v>-0.0492986753732857</v>
       </c>
       <c r="F42">
-        <v>0.07167385524918371</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.8655820553032955</v>
+      </c>
+      <c r="G42">
+        <v>-0.1359282166335173</v>
+      </c>
+      <c r="H42">
+        <v>0.01860604526160379</v>
+      </c>
+      <c r="I42">
+        <v>0.002321101051012088</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.01041517582626427</v>
+        <v>-0.002808787255326487</v>
       </c>
       <c r="C43">
-        <v>-0.003923620652057302</v>
+        <v>-0.006691861440599776</v>
       </c>
       <c r="D43">
-        <v>-0.02575096053977632</v>
+        <v>0.004946023321065147</v>
       </c>
       <c r="E43">
-        <v>-0.006940809898225658</v>
+        <v>0.001445039349889879</v>
       </c>
       <c r="F43">
-        <v>-0.03063267884114203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.004589167062468898</v>
+      </c>
+      <c r="G43">
+        <v>0.01354166096532322</v>
+      </c>
+      <c r="H43">
+        <v>-0.04844076250899405</v>
+      </c>
+      <c r="I43">
+        <v>0.01984709236510204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02971004018458009</v>
+        <v>-0.01835040604203902</v>
       </c>
       <c r="C44">
-        <v>-0.000351149864390802</v>
+        <v>0.002490855990599864</v>
       </c>
       <c r="D44">
-        <v>-0.05704598923712406</v>
+        <v>0.03043698194957262</v>
       </c>
       <c r="E44">
-        <v>-0.01625771771074484</v>
+        <v>-0.009174693277530699</v>
       </c>
       <c r="F44">
-        <v>-0.1320184499207524</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.0106919741107865</v>
+      </c>
+      <c r="G44">
+        <v>0.1082972164790776</v>
+      </c>
+      <c r="H44">
+        <v>-0.1012252539736997</v>
+      </c>
+      <c r="I44">
+        <v>0.04680255015060879</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02724902962811779</v>
+        <v>-0.02176877558775779</v>
       </c>
       <c r="C46">
-        <v>0.01111952856840462</v>
+        <v>-0.001451816907880562</v>
       </c>
       <c r="D46">
-        <v>-0.05360010893899828</v>
+        <v>0.03153786286978996</v>
       </c>
       <c r="E46">
-        <v>-0.02220738255351482</v>
+        <v>-0.001671733250010242</v>
       </c>
       <c r="F46">
-        <v>-0.01976189151544094</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.0372561161416232</v>
+      </c>
+      <c r="G46">
+        <v>0.04175782100748027</v>
+      </c>
+      <c r="H46">
+        <v>-0.06816750792539626</v>
+      </c>
+      <c r="I46">
+        <v>0.01090735720436975</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09099543508791615</v>
+        <v>-0.08029820017626654</v>
       </c>
       <c r="C47">
-        <v>0.02920386005627594</v>
+        <v>0.03076463539587173</v>
       </c>
       <c r="D47">
-        <v>-0.03295227429447864</v>
+        <v>0.02324500240639301</v>
       </c>
       <c r="E47">
-        <v>-0.01480444678396158</v>
+        <v>0.001699408191911819</v>
       </c>
       <c r="F47">
-        <v>0.02773471167797698</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.02813971080786264</v>
+      </c>
+      <c r="G47">
+        <v>-0.0274514281909186</v>
+      </c>
+      <c r="H47">
+        <v>-0.07092762183248089</v>
+      </c>
+      <c r="I47">
+        <v>0.03444949451483147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01252798097309515</v>
+        <v>-0.01957623539980963</v>
       </c>
       <c r="C48">
-        <v>0.00905114608633934</v>
+        <v>0.006763614060195775</v>
       </c>
       <c r="D48">
-        <v>-0.02962036490103041</v>
+        <v>0.009968488099635209</v>
       </c>
       <c r="E48">
-        <v>-0.01115640031331437</v>
+        <v>-0.001679298991656363</v>
       </c>
       <c r="F48">
-        <v>-0.03900165651478718</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01540051351134179</v>
+      </c>
+      <c r="G48">
+        <v>0.02690023400566413</v>
+      </c>
+      <c r="H48">
+        <v>-0.03257524283033741</v>
+      </c>
+      <c r="I48">
+        <v>0.01621535767711966</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.0864277730339114</v>
+        <v>-0.07762283682611441</v>
       </c>
       <c r="C50">
-        <v>0.008314307049863393</v>
+        <v>0.0260679810107051</v>
       </c>
       <c r="D50">
-        <v>-0.03835315361124652</v>
+        <v>0.0364584167426539</v>
       </c>
       <c r="E50">
-        <v>-0.004277801181185634</v>
+        <v>-0.01559169908654185</v>
       </c>
       <c r="F50">
-        <v>0.01733489909906723</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01751483824170225</v>
+      </c>
+      <c r="G50">
+        <v>-0.00715915874557835</v>
+      </c>
+      <c r="H50">
+        <v>-0.05506523866434927</v>
+      </c>
+      <c r="I50">
+        <v>-0.001481519595951007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.04778307735095963</v>
+        <v>-0.0314479709335215</v>
       </c>
       <c r="C51">
-        <v>0.001818542489536233</v>
+        <v>0.002366616644668528</v>
       </c>
       <c r="D51">
-        <v>-0.02076347655861665</v>
+        <v>9.623847928870587e-05</v>
       </c>
       <c r="E51">
-        <v>0.04389354174642928</v>
+        <v>0.01039965026037632</v>
       </c>
       <c r="F51">
-        <v>-0.08230796949085468</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.009270602419461866</v>
+      </c>
+      <c r="G51">
+        <v>0.07654408925612663</v>
+      </c>
+      <c r="H51">
+        <v>-0.08137815325673521</v>
+      </c>
+      <c r="I51">
+        <v>0.05116322761832301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.116337175998755</v>
+        <v>-0.102426266393618</v>
       </c>
       <c r="C53">
-        <v>0.02758350309237025</v>
+        <v>0.03917292424599464</v>
       </c>
       <c r="D53">
-        <v>-0.06940242134954523</v>
+        <v>0.05248771959925663</v>
       </c>
       <c r="E53">
-        <v>-0.01683846477824281</v>
+        <v>-0.003444872008713987</v>
       </c>
       <c r="F53">
-        <v>0.06770796201308672</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05140142496890531</v>
+      </c>
+      <c r="G53">
+        <v>-0.05732178618696441</v>
+      </c>
+      <c r="H53">
+        <v>-0.02674573660948563</v>
+      </c>
+      <c r="I53">
+        <v>0.01735221198840147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02154268404730424</v>
+        <v>-0.02466506151612628</v>
       </c>
       <c r="C54">
-        <v>0.02403909761904714</v>
+        <v>0.01237275849751054</v>
       </c>
       <c r="D54">
-        <v>-0.02510977860471145</v>
+        <v>-0.001713292160513135</v>
       </c>
       <c r="E54">
-        <v>-0.01784909882566582</v>
+        <v>-0.00293287175739533</v>
       </c>
       <c r="F54">
-        <v>-0.03543359763827792</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02866041806922999</v>
+      </c>
+      <c r="G54">
+        <v>0.02658243645349065</v>
+      </c>
+      <c r="H54">
+        <v>-0.06779665795457351</v>
+      </c>
+      <c r="I54">
+        <v>0.02781744015010932</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1057055761561219</v>
+        <v>-0.09041763090107002</v>
       </c>
       <c r="C55">
-        <v>0.02825804803036483</v>
+        <v>0.03796529264911035</v>
       </c>
       <c r="D55">
-        <v>-0.02025677126275422</v>
+        <v>0.0428117032544585</v>
       </c>
       <c r="E55">
-        <v>-0.04500563179212896</v>
+        <v>-0.01675872354505395</v>
       </c>
       <c r="F55">
-        <v>0.05329651552496146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.04316138659272113</v>
+      </c>
+      <c r="G55">
+        <v>-0.05220842044417068</v>
+      </c>
+      <c r="H55">
+        <v>-0.03005589294247264</v>
+      </c>
+      <c r="I55">
+        <v>-0.01303514531054939</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1375316982284669</v>
+        <v>-0.1342316757442133</v>
       </c>
       <c r="C56">
-        <v>0.06782954958064602</v>
+        <v>0.05779387954650474</v>
       </c>
       <c r="D56">
-        <v>-0.04898201999552079</v>
+        <v>0.04387010532194591</v>
       </c>
       <c r="E56">
-        <v>-0.04876134781637616</v>
+        <v>-0.005818408365853299</v>
       </c>
       <c r="F56">
-        <v>0.1196625293753695</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.07546013177288376</v>
+      </c>
+      <c r="G56">
+        <v>-0.1013518789327339</v>
+      </c>
+      <c r="H56">
+        <v>0.008412800258332067</v>
+      </c>
+      <c r="I56">
+        <v>-0.01495435636711144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.06389779315873849</v>
+        <v>-0.05683256461061391</v>
       </c>
       <c r="C57">
-        <v>0.01833405777770371</v>
+        <v>-0.00420271512576604</v>
       </c>
       <c r="D57">
-        <v>-0.04644647204175317</v>
+        <v>0.03154341237443928</v>
       </c>
       <c r="E57">
-        <v>0.01451115831177071</v>
+        <v>0.01180985613950743</v>
       </c>
       <c r="F57">
-        <v>-0.07390476637846799</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.009491056442055173</v>
+      </c>
+      <c r="G57">
+        <v>0.05679568682638817</v>
+      </c>
+      <c r="H57">
+        <v>-0.03093133222249708</v>
+      </c>
+      <c r="I57">
+        <v>0.01893666969846445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2239742122045038</v>
+        <v>-0.1911672623916819</v>
       </c>
       <c r="C58">
-        <v>0.04239583749975775</v>
+        <v>0.06052764869061852</v>
       </c>
       <c r="D58">
-        <v>-0.1249453529504105</v>
+        <v>0.1324421617985702</v>
       </c>
       <c r="E58">
-        <v>0.01190012395707213</v>
+        <v>0.08106453494747938</v>
       </c>
       <c r="F58">
-        <v>-0.2473749339350547</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.005350764674132077</v>
+      </c>
+      <c r="G58">
+        <v>0.3848507804524029</v>
+      </c>
+      <c r="H58">
+        <v>-0.3626321526375937</v>
+      </c>
+      <c r="I58">
+        <v>-0.4158774942511922</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.04743718660812289</v>
+        <v>-0.09316603098627532</v>
       </c>
       <c r="C59">
-        <v>0.1185103193051057</v>
+        <v>0.0008937020066427211</v>
       </c>
       <c r="D59">
-        <v>0.131570389446564</v>
+        <v>-0.2023695814045593</v>
       </c>
       <c r="E59">
-        <v>0.0817992863711736</v>
+        <v>0.06974576250820842</v>
       </c>
       <c r="F59">
-        <v>-0.01789606051649464</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.02537218425706785</v>
+      </c>
+      <c r="G59">
+        <v>0.04511258211403069</v>
+      </c>
+      <c r="H59">
+        <v>-0.02341660597060857</v>
+      </c>
+      <c r="I59">
+        <v>0.02600809868325198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1730572780251694</v>
+        <v>-0.1930777980379212</v>
       </c>
       <c r="C60">
-        <v>0.08205691421839162</v>
+        <v>0.03736775629013723</v>
       </c>
       <c r="D60">
-        <v>-0.01080611503545208</v>
+        <v>-0.01088169099388731</v>
       </c>
       <c r="E60">
-        <v>0.08766353270570727</v>
+        <v>0.07125080926901656</v>
       </c>
       <c r="F60">
-        <v>-0.1410153571519363</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.02907331785535126</v>
+      </c>
+      <c r="G60">
+        <v>0.2089306433316657</v>
+      </c>
+      <c r="H60">
+        <v>0.3562361943126328</v>
+      </c>
+      <c r="I60">
+        <v>0.06582661383857326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03359853199855793</v>
+        <v>-0.03418787591598589</v>
       </c>
       <c r="C61">
-        <v>0.009656864358420001</v>
+        <v>0.01379593461979948</v>
       </c>
       <c r="D61">
-        <v>-0.01925049639290959</v>
+        <v>0.03417477075245313</v>
       </c>
       <c r="E61">
-        <v>-0.01560758827576216</v>
+        <v>-0.006783378608956698</v>
       </c>
       <c r="F61">
-        <v>-0.03373049606111799</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02659669419935487</v>
+      </c>
+      <c r="G61">
+        <v>0.03532188068892032</v>
+      </c>
+      <c r="H61">
+        <v>0.01406595217716846</v>
+      </c>
+      <c r="I61">
+        <v>0.01592221691692736</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.02598369163105621</v>
+        <v>-0.02428915394895911</v>
       </c>
       <c r="C63">
-        <v>0.02028216164512219</v>
+        <v>0.003142710740303867</v>
       </c>
       <c r="D63">
-        <v>-0.04452235772226493</v>
+        <v>0.02449505947643493</v>
       </c>
       <c r="E63">
-        <v>-0.01879381342319062</v>
+        <v>-0.003510275453129153</v>
       </c>
       <c r="F63">
-        <v>-0.04343057355045459</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02493778790764696</v>
+      </c>
+      <c r="G63">
+        <v>0.0243102414433168</v>
+      </c>
+      <c r="H63">
+        <v>-0.05173644945354256</v>
+      </c>
+      <c r="I63">
+        <v>-0.002185356445371784</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.04931515173053879</v>
+        <v>-0.0470995732531115</v>
       </c>
       <c r="C64">
-        <v>0.009649513512669313</v>
+        <v>0.01546189704798013</v>
       </c>
       <c r="D64">
-        <v>-0.04527133815767762</v>
+        <v>0.03920655921308846</v>
       </c>
       <c r="E64">
-        <v>-0.05781771504893671</v>
+        <v>-0.01682675982803466</v>
       </c>
       <c r="F64">
-        <v>-0.04548080611318293</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03033632598634916</v>
+      </c>
+      <c r="G64">
+        <v>0.03062979095241324</v>
+      </c>
+      <c r="H64">
+        <v>-0.03566455217165967</v>
+      </c>
+      <c r="I64">
+        <v>0.06145334519462809</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.005942853674661166</v>
+        <v>-0.03412918915449999</v>
       </c>
       <c r="C65">
-        <v>0.001432439477225262</v>
+        <v>-0.0038537962900406</v>
       </c>
       <c r="D65">
-        <v>0.0002258517886583623</v>
+        <v>0.02028487554689806</v>
       </c>
       <c r="E65">
-        <v>0.005839321278465724</v>
+        <v>-0.006135352726824065</v>
       </c>
       <c r="F65">
-        <v>-0.001437149364393022</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.0217750689019652</v>
+      </c>
+      <c r="G65">
+        <v>0.01526076808594135</v>
+      </c>
+      <c r="H65">
+        <v>0.03936704481494729</v>
+      </c>
+      <c r="I65">
+        <v>-0.00610281599049379</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.05236921970679169</v>
+        <v>-0.04811507347402186</v>
       </c>
       <c r="C66">
-        <v>0.02511937227780683</v>
+        <v>0.01610059478852044</v>
       </c>
       <c r="D66">
-        <v>-0.05888735246306391</v>
+        <v>0.06190843355766228</v>
       </c>
       <c r="E66">
-        <v>-0.02341808996755644</v>
+        <v>0.002211891732409749</v>
       </c>
       <c r="F66">
-        <v>-0.08384111608059587</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.05809431572907014</v>
+      </c>
+      <c r="G66">
+        <v>0.06367627272712344</v>
+      </c>
+      <c r="H66">
+        <v>0.01716118417409838</v>
+      </c>
+      <c r="I66">
+        <v>0.01078536956445001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.03060578554541673</v>
+        <v>-0.0382027363355207</v>
       </c>
       <c r="C67">
-        <v>0.01763330905019461</v>
+        <v>0.01496535229503996</v>
       </c>
       <c r="D67">
-        <v>0.02147889894451604</v>
+        <v>-0.006165514385022036</v>
       </c>
       <c r="E67">
-        <v>0.009934338576076524</v>
+        <v>0.001721389531624105</v>
       </c>
       <c r="F67">
-        <v>-0.02706686937064001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.006739230888823938</v>
+      </c>
+      <c r="G67">
+        <v>0.03100619932750315</v>
+      </c>
+      <c r="H67">
+        <v>-0.006881875017485201</v>
+      </c>
+      <c r="I67">
+        <v>0.04686205453724655</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.05814214746078819</v>
+        <v>-0.09850296144056984</v>
       </c>
       <c r="C68">
-        <v>0.1101381125779139</v>
+        <v>-0.01790027164975596</v>
       </c>
       <c r="D68">
-        <v>0.1869632545316555</v>
+        <v>-0.2229580225301411</v>
       </c>
       <c r="E68">
-        <v>0.1211580415851827</v>
+        <v>0.06838847636801994</v>
       </c>
       <c r="F68">
-        <v>0.02350816231816996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05647940769764438</v>
+      </c>
+      <c r="G68">
+        <v>0.001314068100740419</v>
+      </c>
+      <c r="H68">
+        <v>-0.03815356124176316</v>
+      </c>
+      <c r="I68">
+        <v>-0.01813182399637756</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07415646506077088</v>
+        <v>-0.06717406048998467</v>
       </c>
       <c r="C69">
-        <v>0.03332752613683772</v>
+        <v>0.02980623427772468</v>
       </c>
       <c r="D69">
-        <v>-0.02056907030142673</v>
+        <v>0.0183266626702386</v>
       </c>
       <c r="E69">
-        <v>0.005030270757601834</v>
+        <v>0.005675788939782714</v>
       </c>
       <c r="F69">
-        <v>0.01013412072096016</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02710879946287939</v>
+      </c>
+      <c r="G69">
+        <v>-0.01100109543552997</v>
+      </c>
+      <c r="H69">
+        <v>-0.04503975853883101</v>
+      </c>
+      <c r="I69">
+        <v>0.03227526404537981</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.05558838920416355</v>
+        <v>-0.09422591347474764</v>
       </c>
       <c r="C71">
-        <v>0.1314501196183056</v>
+        <v>-0.0102100328135608</v>
       </c>
       <c r="D71">
-        <v>0.2352005016629424</v>
+        <v>-0.2423725131491699</v>
       </c>
       <c r="E71">
-        <v>0.2030097449613129</v>
+        <v>0.07874162257783057</v>
       </c>
       <c r="F71">
-        <v>-0.01246838770886826</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.08018401008727032</v>
+      </c>
+      <c r="G71">
+        <v>0.02688820381770311</v>
+      </c>
+      <c r="H71">
+        <v>-0.0232482360938112</v>
+      </c>
+      <c r="I71">
+        <v>0.01879605824261398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1256569717131188</v>
+        <v>-0.1254940617200873</v>
       </c>
       <c r="C72">
-        <v>0.09271487336573415</v>
+        <v>0.0590731182583623</v>
       </c>
       <c r="D72">
-        <v>-0.05215684749941207</v>
+        <v>0.05756208807735919</v>
       </c>
       <c r="E72">
-        <v>-0.03054768499659903</v>
+        <v>0.008659377734627863</v>
       </c>
       <c r="F72">
-        <v>-0.006956435289062562</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.108394805327112</v>
+      </c>
+      <c r="G72">
+        <v>0.08753707904654193</v>
+      </c>
+      <c r="H72">
+        <v>0.0897311055339943</v>
+      </c>
+      <c r="I72">
+        <v>0.03003571243413103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2551816132872136</v>
+        <v>-0.2633688767218348</v>
       </c>
       <c r="C73">
-        <v>0.1215300802118363</v>
+        <v>0.04972557911718298</v>
       </c>
       <c r="D73">
-        <v>0.03597493455698266</v>
+        <v>0.005324465071229766</v>
       </c>
       <c r="E73">
-        <v>0.1299453061537846</v>
+        <v>0.1017476730181817</v>
       </c>
       <c r="F73">
-        <v>-0.2671097291375661</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.009669395154424517</v>
+      </c>
+      <c r="G73">
+        <v>0.3005915474694557</v>
+      </c>
+      <c r="H73">
+        <v>0.5201905490810461</v>
+      </c>
+      <c r="I73">
+        <v>0.02566244434366939</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1365781367647282</v>
+        <v>-0.1286028788074622</v>
       </c>
       <c r="C74">
-        <v>0.03088844514424723</v>
+        <v>0.05354485325599177</v>
       </c>
       <c r="D74">
-        <v>-0.04248219231266437</v>
+        <v>0.05460850065294053</v>
       </c>
       <c r="E74">
-        <v>-0.02264864172560009</v>
+        <v>0.000372927569603046</v>
       </c>
       <c r="F74">
-        <v>0.08259976121372274</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.05446225941786779</v>
+      </c>
+      <c r="G74">
+        <v>-0.08390709395471148</v>
+      </c>
+      <c r="H74">
+        <v>0.01840381896789629</v>
+      </c>
+      <c r="I74">
+        <v>0.007776974372201315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2201852655693667</v>
+        <v>-0.2260413056926789</v>
       </c>
       <c r="C75">
-        <v>0.1019241433540014</v>
+        <v>0.09576711194740473</v>
       </c>
       <c r="D75">
-        <v>-0.08788702544156271</v>
+        <v>0.061070108130345</v>
       </c>
       <c r="E75">
-        <v>-0.02168687198683772</v>
+        <v>0.02460040356657004</v>
       </c>
       <c r="F75">
-        <v>0.1626555883247895</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.123107171921881</v>
+      </c>
+      <c r="G75">
+        <v>-0.1563892425110249</v>
+      </c>
+      <c r="H75">
+        <v>-0.01351288784740111</v>
+      </c>
+      <c r="I75">
+        <v>0.005545887117033941</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2436800805408371</v>
+        <v>-0.2288418214792791</v>
       </c>
       <c r="C76">
-        <v>0.1142650450441942</v>
+        <v>0.1036011326206123</v>
       </c>
       <c r="D76">
-        <v>-0.03793883335508639</v>
+        <v>0.05090773383540449</v>
       </c>
       <c r="E76">
-        <v>-0.07862373449601801</v>
+        <v>-0.01827584255280364</v>
       </c>
       <c r="F76">
-        <v>0.1642334464840501</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1365198198823281</v>
+      </c>
+      <c r="G76">
+        <v>-0.2002718842961317</v>
+      </c>
+      <c r="H76">
+        <v>-0.005733904671115476</v>
+      </c>
+      <c r="I76">
+        <v>-0.06007715397599398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1518724993748284</v>
+        <v>-0.1018375212884362</v>
       </c>
       <c r="C77">
-        <v>-0.02668443302301386</v>
+        <v>0.01776865360334076</v>
       </c>
       <c r="D77">
-        <v>-0.061905782773859</v>
+        <v>0.08296961077814524</v>
       </c>
       <c r="E77">
-        <v>0.02082817100986065</v>
+        <v>-0.002900724460704991</v>
       </c>
       <c r="F77">
-        <v>-0.2374935829483936</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.03622991645757127</v>
+      </c>
+      <c r="G77">
+        <v>0.1560401423056671</v>
+      </c>
+      <c r="H77">
+        <v>-0.2169224658239842</v>
+      </c>
+      <c r="I77">
+        <v>-0.07339113690513602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08392079102020937</v>
+        <v>-0.05749339172159425</v>
       </c>
       <c r="C78">
-        <v>-0.009957162078886599</v>
+        <v>0.01704832119683673</v>
       </c>
       <c r="D78">
-        <v>-0.07713049822137645</v>
+        <v>0.06516020600804417</v>
       </c>
       <c r="E78">
-        <v>-0.04425663677537178</v>
+        <v>-0.0132746631660333</v>
       </c>
       <c r="F78">
-        <v>-0.05409653213783547</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.03613517856491239</v>
+      </c>
+      <c r="G78">
+        <v>0.07116256323784102</v>
+      </c>
+      <c r="H78">
+        <v>-0.03035914908386736</v>
+      </c>
+      <c r="I78">
+        <v>0.0183107661465457</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.156001667637925</v>
+        <v>-0.1722153044772863</v>
       </c>
       <c r="C80">
-        <v>-0.09001868636275577</v>
+        <v>0.04882495535498457</v>
       </c>
       <c r="D80">
-        <v>0.5453334956412124</v>
+        <v>-0.238243918533408</v>
       </c>
       <c r="E80">
-        <v>-0.7872939339438029</v>
+        <v>-0.9400343268709246</v>
       </c>
       <c r="F80">
-        <v>-0.1364074315875439</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02205843509413512</v>
+      </c>
+      <c r="G80">
+        <v>0.08046331098512133</v>
+      </c>
+      <c r="H80">
+        <v>0.02588650282746254</v>
+      </c>
+      <c r="I80">
+        <v>0.03005351985625517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1670621626336873</v>
+        <v>-0.1712955281452155</v>
       </c>
       <c r="C81">
-        <v>0.0837995340128878</v>
+        <v>0.07278496201458833</v>
       </c>
       <c r="D81">
-        <v>-0.05111056386870651</v>
+        <v>0.04266425954539421</v>
       </c>
       <c r="E81">
-        <v>-0.03051835781276194</v>
+        <v>0.003741835729795689</v>
       </c>
       <c r="F81">
-        <v>0.1579768446088497</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.0989504566448049</v>
+      </c>
+      <c r="G81">
+        <v>-0.1393846735186924</v>
+      </c>
+      <c r="H81">
+        <v>-0.01065745687816483</v>
+      </c>
+      <c r="I81">
+        <v>-0.04677232700757222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06389385046651558</v>
+        <v>-0.04744576647379581</v>
       </c>
       <c r="C83">
-        <v>-0.03936631863699924</v>
+        <v>0.01308492965038187</v>
       </c>
       <c r="D83">
-        <v>-0.0646060285993917</v>
+        <v>0.04727667689269996</v>
       </c>
       <c r="E83">
-        <v>-0.005570493358759823</v>
+        <v>0.002032371544896571</v>
       </c>
       <c r="F83">
-        <v>-0.05551839060534617</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01080345769414867</v>
+      </c>
+      <c r="G83">
+        <v>0.05201177359848403</v>
+      </c>
+      <c r="H83">
+        <v>-0.03113428061274765</v>
+      </c>
+      <c r="I83">
+        <v>0.01918841656674795</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.218730257546615</v>
+        <v>-0.2192389923175278</v>
       </c>
       <c r="C85">
-        <v>0.06298227272483167</v>
+        <v>0.08597687577737269</v>
       </c>
       <c r="D85">
-        <v>-0.07804853648073494</v>
+        <v>0.09243728658872914</v>
       </c>
       <c r="E85">
-        <v>-0.07589330380086363</v>
+        <v>0.0004476878993867266</v>
       </c>
       <c r="F85">
-        <v>0.2125685757277269</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.118024276595224</v>
+      </c>
+      <c r="G85">
+        <v>-0.1972626772453593</v>
+      </c>
+      <c r="H85">
+        <v>-0.01323134315522137</v>
+      </c>
+      <c r="I85">
+        <v>-0.02606117187572378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02456348094683711</v>
+        <v>-0.01995998979379651</v>
       </c>
       <c r="C86">
-        <v>-0.007633626749580793</v>
+        <v>-0.001481467198912276</v>
       </c>
       <c r="D86">
-        <v>-0.06066916368264592</v>
+        <v>0.0421684162522192</v>
       </c>
       <c r="E86">
-        <v>-0.01752690914861789</v>
+        <v>-0.005128198586672151</v>
       </c>
       <c r="F86">
-        <v>-0.08265089879629052</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01241299684574154</v>
+      </c>
+      <c r="G86">
+        <v>0.08036172858373569</v>
+      </c>
+      <c r="H86">
+        <v>-0.06426156185739693</v>
+      </c>
+      <c r="I86">
+        <v>0.01508156600837083</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01778225535956347</v>
+        <v>-0.02798559386608261</v>
       </c>
       <c r="C87">
-        <v>0.03602781649335851</v>
+        <v>-0.0001209842841971231</v>
       </c>
       <c r="D87">
-        <v>0.04611978631304507</v>
+        <v>-0.01076292569176749</v>
       </c>
       <c r="E87">
-        <v>0.03953965777758967</v>
+        <v>0.003282434265372872</v>
       </c>
       <c r="F87">
-        <v>-0.09470277334793413</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.005721721694781839</v>
+      </c>
+      <c r="G87">
+        <v>0.1075324337830108</v>
+      </c>
+      <c r="H87">
+        <v>-0.003641217678783001</v>
+      </c>
+      <c r="I87">
+        <v>-0.01419518996892855</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.01171935577661606</v>
+        <v>-0.0321748837430663</v>
       </c>
       <c r="C88">
-        <v>0.01252509628539274</v>
+        <v>0.008159321072908348</v>
       </c>
       <c r="D88">
-        <v>0.005152137267872632</v>
+        <v>-0.006860737809228935</v>
       </c>
       <c r="E88">
-        <v>-0.01997437678039245</v>
+        <v>-0.001480043326600972</v>
       </c>
       <c r="F88">
-        <v>-0.002805277001757059</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01334689710607112</v>
+      </c>
+      <c r="G88">
+        <v>-0.004920532951490093</v>
+      </c>
+      <c r="H88">
+        <v>-0.02227898628427614</v>
+      </c>
+      <c r="I88">
+        <v>0.06428597286426058</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.08716926181092317</v>
+        <v>-0.1577844307372484</v>
       </c>
       <c r="C89">
-        <v>0.1269195740271074</v>
+        <v>-0.0179855048487361</v>
       </c>
       <c r="D89">
-        <v>0.2567371416882744</v>
+        <v>-0.3531255975580505</v>
       </c>
       <c r="E89">
-        <v>0.2132351931215395</v>
+        <v>0.1359648374736588</v>
       </c>
       <c r="F89">
-        <v>0.005937620764126795</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.1015037898829608</v>
+      </c>
+      <c r="G89">
+        <v>0.004151005110518117</v>
+      </c>
+      <c r="H89">
+        <v>-0.09460127446750861</v>
+      </c>
+      <c r="I89">
+        <v>-0.002762259594903338</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.07516175707485533</v>
+        <v>-0.1130698362756875</v>
       </c>
       <c r="C90">
-        <v>0.1299178467059401</v>
+        <v>-0.01704044946133638</v>
       </c>
       <c r="D90">
-        <v>0.2645142284259042</v>
+        <v>-0.3022576768290591</v>
       </c>
       <c r="E90">
-        <v>0.1509812532104987</v>
+        <v>0.09536440408022848</v>
       </c>
       <c r="F90">
-        <v>0.01255602999084385</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.09082680104363301</v>
+      </c>
+      <c r="G90">
+        <v>-0.03053107902951156</v>
+      </c>
+      <c r="H90">
+        <v>-0.06432995559097172</v>
+      </c>
+      <c r="I90">
+        <v>0.002892307375912022</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2839444969854725</v>
+        <v>-0.2596865947169446</v>
       </c>
       <c r="C91">
-        <v>0.07314033105063868</v>
+        <v>0.1095107478954229</v>
       </c>
       <c r="D91">
-        <v>-0.1020715946223029</v>
+        <v>0.1053555479820673</v>
       </c>
       <c r="E91">
-        <v>-0.07038319372154321</v>
+        <v>0.00592893525908007</v>
       </c>
       <c r="F91">
-        <v>0.2552479968259417</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.114584260237854</v>
+      </c>
+      <c r="G91">
+        <v>-0.2557406545018643</v>
+      </c>
+      <c r="H91">
+        <v>-0.02614974467539372</v>
+      </c>
+      <c r="I91">
+        <v>-0.06022540873478705</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.1242503317523998</v>
+        <v>-0.1894751440920826</v>
       </c>
       <c r="C92">
-        <v>0.1081632480261879</v>
+        <v>0.05221071742910879</v>
       </c>
       <c r="D92">
-        <v>0.2770280073299553</v>
+        <v>-0.3142404459932033</v>
       </c>
       <c r="E92">
-        <v>0.140371545009489</v>
+        <v>0.08590159651159712</v>
       </c>
       <c r="F92">
-        <v>0.03733358693606902</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.088870999363965</v>
+      </c>
+      <c r="G92">
+        <v>-0.08747726214789195</v>
+      </c>
+      <c r="H92">
+        <v>-0.1767927635766511</v>
+      </c>
+      <c r="I92">
+        <v>-0.003233471059832802</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.07548681583454393</v>
+        <v>-0.1413705573379143</v>
       </c>
       <c r="C93">
-        <v>0.1253245965938835</v>
+        <v>-0.01312036644890474</v>
       </c>
       <c r="D93">
-        <v>0.3209325885759154</v>
+        <v>-0.3590355910568097</v>
       </c>
       <c r="E93">
-        <v>0.2009972974651317</v>
+        <v>0.1246744130076328</v>
       </c>
       <c r="F93">
-        <v>0.05056580196771207</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.1402234862486727</v>
+      </c>
+      <c r="G93">
+        <v>-0.03079240209544826</v>
+      </c>
+      <c r="H93">
+        <v>-0.01002114703539106</v>
+      </c>
+      <c r="I93">
+        <v>0.03022232553973293</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2614581790265281</v>
+        <v>-0.2791321423913176</v>
       </c>
       <c r="C94">
-        <v>0.1181231462683619</v>
+        <v>0.09696720608060679</v>
       </c>
       <c r="D94">
-        <v>0.005424416363783799</v>
+        <v>0.0298222858246819</v>
       </c>
       <c r="E94">
-        <v>-0.01993618339529965</v>
+        <v>0.04073516486219037</v>
       </c>
       <c r="F94">
-        <v>0.3071014358340873</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1339356921995057</v>
+      </c>
+      <c r="G94">
+        <v>-0.295428476584164</v>
+      </c>
+      <c r="H94">
+        <v>-0.007835280517348756</v>
+      </c>
+      <c r="I94">
+        <v>-0.2032368092672233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1372420979329456</v>
+        <v>-0.1067798691915375</v>
       </c>
       <c r="C95">
-        <v>-0.0115426150707097</v>
+        <v>0.05889349621480432</v>
       </c>
       <c r="D95">
-        <v>-0.198883454109673</v>
+        <v>0.09981216433937577</v>
       </c>
       <c r="E95">
-        <v>-0.06273439581608048</v>
+        <v>0.06387829904351158</v>
       </c>
       <c r="F95">
-        <v>0.2611535916352315</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.03965388577019077</v>
+      </c>
+      <c r="G95">
+        <v>-0.04092681636634365</v>
+      </c>
+      <c r="H95">
+        <v>-0.1806527217047777</v>
+      </c>
+      <c r="I95">
+        <v>0.8406819513315938</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1860356357516867</v>
+        <v>-0.1960174242000684</v>
       </c>
       <c r="C98">
-        <v>0.06097566633435897</v>
+        <v>0.06845534232975017</v>
       </c>
       <c r="D98">
-        <v>0.01823074949384292</v>
+        <v>-0.006877370595477462</v>
       </c>
       <c r="E98">
-        <v>0.1087152967328221</v>
+        <v>0.07137617021685402</v>
       </c>
       <c r="F98">
-        <v>-0.1391879126545978</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.009652839903917895</v>
+      </c>
+      <c r="G98">
+        <v>0.2183555059961746</v>
+      </c>
+      <c r="H98">
+        <v>0.374785345590508</v>
+      </c>
+      <c r="I98">
+        <v>0.01901580568956902</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3597,130 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.0002602275714859227</v>
+        <v>-0.01502653633958633</v>
       </c>
       <c r="C101">
-        <v>0.01658004170656764</v>
+        <v>0.0006839883692367371</v>
       </c>
       <c r="D101">
-        <v>-0.06008653125852424</v>
+        <v>0.0231389712623521</v>
       </c>
       <c r="E101">
-        <v>-0.04686625729610688</v>
+        <v>-0.008066640303259405</v>
       </c>
       <c r="F101">
-        <v>-0.03772165882952464</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.04132467435603573</v>
+      </c>
+      <c r="G101">
+        <v>0.07079680625671454</v>
+      </c>
+      <c r="H101">
+        <v>-0.1228331096551399</v>
+      </c>
+      <c r="I101">
+        <v>-0.03511364188422681</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.08702212712412194</v>
+        <v>-0.1059369509342325</v>
       </c>
       <c r="C102">
-        <v>0.02410888370317304</v>
+        <v>0.03285333711327128</v>
       </c>
       <c r="D102">
-        <v>-0.04404695407234929</v>
+        <v>0.04068558697557712</v>
       </c>
       <c r="E102">
-        <v>-0.05570420645438812</v>
+        <v>-0.005627748877758127</v>
       </c>
       <c r="F102">
-        <v>0.1069828718508993</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06038972029842853</v>
+      </c>
+      <c r="G102">
+        <v>-0.1170201642007368</v>
+      </c>
+      <c r="H102">
+        <v>-0.00472118559741672</v>
+      </c>
+      <c r="I102">
+        <v>-0.006344500891303267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.01907484617819183</v>
+        <v>-0.02541418631367178</v>
       </c>
       <c r="C103">
-        <v>0.01212214218675633</v>
+        <v>0.009281670313118221</v>
       </c>
       <c r="D103">
-        <v>-0.0007422184578264834</v>
+        <v>0.005690479133351837</v>
       </c>
       <c r="E103">
-        <v>-0.006193254233986444</v>
+        <v>-0.00794711724406388</v>
       </c>
       <c r="F103">
-        <v>0.03209556769363251</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.0168441361764683</v>
+      </c>
+      <c r="G103">
+        <v>-0.02218011685978548</v>
+      </c>
+      <c r="H103">
+        <v>-0.01425045622519051</v>
+      </c>
+      <c r="I103">
+        <v>0.00390534504885239</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2466183097567205</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9471044358883488</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.05196394174011162</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02337071480541202</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1652340290240938</v>
+      </c>
+      <c r="G104">
+        <v>-0.04365611113048803</v>
+      </c>
+      <c r="H104">
+        <v>0.001762395253213011</v>
+      </c>
+      <c r="I104">
+        <v>0.002872744996061256</v>
       </c>
     </row>
   </sheetData>
